--- a/2 hams_Nutritional_Analysis.xlsx
+++ b/2 hams_Nutritional_Analysis.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\Maestria MCD 100EXC\Ing_caracteristicas Scripts Python\API EDEMAM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC60987-D7E4-4A0A-BE91-C9CBAD9C9F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Nutritional_Analysis" sheetId="1" r:id="rId1"/>
     <sheet name="Total_Daily" sheetId="2" r:id="rId2"/>
     <sheet name="totalNutrientsKCal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
   <si>
     <t>label</t>
   </si>
@@ -33,205 +27,205 @@
     <t>unit</t>
   </si>
   <si>
+    <t>ENERC_KCAL</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>FASAT</t>
+  </si>
+  <si>
+    <t>FAMS</t>
+  </si>
+  <si>
+    <t>FAPU</t>
+  </si>
+  <si>
+    <t>CHOCDF</t>
+  </si>
+  <si>
+    <t>FIBTG</t>
+  </si>
+  <si>
+    <t>SUGAR</t>
+  </si>
+  <si>
+    <t>PROCNT</t>
+  </si>
+  <si>
+    <t>CHOLE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>VITA_RAE</t>
+  </si>
+  <si>
+    <t>VITC</t>
+  </si>
+  <si>
+    <t>THIA</t>
+  </si>
+  <si>
+    <t>RIBF</t>
+  </si>
+  <si>
+    <t>NIA</t>
+  </si>
+  <si>
+    <t>VITB6A</t>
+  </si>
+  <si>
+    <t>FOLDFE</t>
+  </si>
+  <si>
+    <t>FOLFD</t>
+  </si>
+  <si>
+    <t>FOLAC</t>
+  </si>
+  <si>
+    <t>VITB12</t>
+  </si>
+  <si>
+    <t>VITD</t>
+  </si>
+  <si>
+    <t>TOCPHA</t>
+  </si>
+  <si>
+    <t>VITK1</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Saturated</t>
+  </si>
+  <si>
+    <t>Monounsaturated</t>
+  </si>
+  <si>
+    <t>Polyunsaturated</t>
+  </si>
+  <si>
+    <t>Carbs</t>
+  </si>
+  <si>
+    <t>Fiber</t>
+  </si>
+  <si>
+    <t>Sugars</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Vitamin A</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>Thiamin (B1)</t>
+  </si>
+  <si>
+    <t>Riboflavin (B2)</t>
+  </si>
+  <si>
+    <t>Niacin (B3)</t>
+  </si>
+  <si>
+    <t>Vitamin B6</t>
+  </si>
+  <si>
+    <t>Folate equivalent (total)</t>
+  </si>
+  <si>
+    <t>Folate (food)</t>
+  </si>
+  <si>
+    <t>Folic acid</t>
+  </si>
+  <si>
+    <t>Vitamin B12</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Vitamin E</t>
+  </si>
+  <si>
+    <t>Vitamin K</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>µg</t>
+  </si>
+  <si>
     <t>2 hams</t>
-  </si>
-  <si>
-    <t>ENERC_KCAL</t>
-  </si>
-  <si>
-    <t>FAT</t>
-  </si>
-  <si>
-    <t>FASAT</t>
-  </si>
-  <si>
-    <t>FAMS</t>
-  </si>
-  <si>
-    <t>FAPU</t>
-  </si>
-  <si>
-    <t>CHOCDF</t>
-  </si>
-  <si>
-    <t>FIBTG</t>
-  </si>
-  <si>
-    <t>SUGAR</t>
-  </si>
-  <si>
-    <t>PROCNT</t>
-  </si>
-  <si>
-    <t>CHOLE</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>ZN</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>VITA_RAE</t>
-  </si>
-  <si>
-    <t>VITC</t>
-  </si>
-  <si>
-    <t>THIA</t>
-  </si>
-  <si>
-    <t>RIBF</t>
-  </si>
-  <si>
-    <t>NIA</t>
-  </si>
-  <si>
-    <t>VITB6A</t>
-  </si>
-  <si>
-    <t>FOLDFE</t>
-  </si>
-  <si>
-    <t>FOLFD</t>
-  </si>
-  <si>
-    <t>FOLAC</t>
-  </si>
-  <si>
-    <t>VITB12</t>
-  </si>
-  <si>
-    <t>VITD</t>
-  </si>
-  <si>
-    <t>TOCPHA</t>
-  </si>
-  <si>
-    <t>VITK1</t>
-  </si>
-  <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Fat</t>
-  </si>
-  <si>
-    <t>Saturated</t>
-  </si>
-  <si>
-    <t>Monounsaturated</t>
-  </si>
-  <si>
-    <t>Polyunsaturated</t>
-  </si>
-  <si>
-    <t>Carbs</t>
-  </si>
-  <si>
-    <t>Fiber</t>
-  </si>
-  <si>
-    <t>Sugars</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Cholesterol</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <t>Vitamin A</t>
-  </si>
-  <si>
-    <t>Vitamin C</t>
-  </si>
-  <si>
-    <t>Thiamin (B1)</t>
-  </si>
-  <si>
-    <t>Riboflavin (B2)</t>
-  </si>
-  <si>
-    <t>Niacin (B3)</t>
-  </si>
-  <si>
-    <t>Vitamin B6</t>
-  </si>
-  <si>
-    <t>Folate equivalent (total)</t>
-  </si>
-  <si>
-    <t>Folate (food)</t>
-  </si>
-  <si>
-    <t>Folic acid</t>
-  </si>
-  <si>
-    <t>Vitamin B12</t>
-  </si>
-  <si>
-    <t>Vitamin D</t>
-  </si>
-  <si>
-    <t>Vitamin E</t>
-  </si>
-  <si>
-    <t>Vitamin K</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>kcal</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>µg</t>
   </si>
   <si>
     <t>%</t>
@@ -258,8 +252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,19 +316,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -376,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,27 +394,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,24 +428,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,25 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,438 +621,438 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>29354.4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>29354.400000000001</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3">
+        <v>1679.724</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>36</v>
-      </c>
-      <c r="C3">
-        <v>1679.7239999999999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
       </c>
       <c r="C4">
         <v>558.0597600000001</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>798.6027600000001</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>205.4808</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
-        <v>205.48079999999999</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C7">
+        <v>684.936</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>40</v>
-      </c>
-      <c r="C7">
-        <v>684.93600000000004</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2690.82</v>
       </c>
       <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>9621.720000000001</v>
+      </c>
+      <c r="D11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>44</v>
-      </c>
-      <c r="C11">
-        <v>9621.7200000000012</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
       </c>
       <c r="C12">
         <v>169440.12</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>1141.56</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>2609.28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>47</v>
-      </c>
-      <c r="C14">
-        <v>2609.2800000000002</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
       </c>
       <c r="C15">
         <v>52022.52</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>135.3564</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
-        <v>135.35640000000001</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C17">
+        <v>316.3752</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>50</v>
-      </c>
-      <c r="C17">
-        <v>316.37520000000001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
       </c>
       <c r="C18">
         <v>25277.4</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>103.06656</v>
       </c>
       <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>33.26832</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>632.7504</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>57.078</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <v>163.08</v>
+      </c>
+      <c r="D25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22">
-        <v>33.268320000000003</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>163.08</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23">
-        <v>632.75040000000001</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24">
-        <v>57.078000000000003</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25">
-        <v>163.08000000000001</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>59</v>
-      </c>
-      <c r="C26">
-        <v>163.08000000000001</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>150.0336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C28">
-        <v>150.03360000000001</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29">
+        <v>114.156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C29">
-        <v>114.15600000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C30">
+        <v>37.5084</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>63</v>
-      </c>
-      <c r="C30">
-        <v>37.508400000000002</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>10649.124</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1122,24 +1061,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1151,12 +1082,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1467.72</v>
@@ -1165,12 +1096,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2584.19076923077</v>
@@ -1179,12 +1110,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>2790.2988</v>
@@ -1193,26 +1124,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>228.312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>40</v>
-      </c>
-      <c r="C5">
-        <v>228.31200000000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1221,12 +1152,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>5381.64</v>
@@ -1235,12 +1166,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>3207.24</v>
@@ -1249,54 +1180,54 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>7060.005000000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C9">
-        <v>7060.0050000000019</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>114.156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C10">
-        <v>114.15600000000001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11">
+        <v>621.257142857143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>47</v>
-      </c>
-      <c r="C11">
-        <v>621.25714285714298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
       </c>
       <c r="C12">
         <v>1106.862127659575</v>
@@ -1305,12 +1236,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>751.98</v>
@@ -1319,40 +1250,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>2876.138181818182</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C14">
-        <v>2876.1381818181821</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15">
+        <v>3611.057142857143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
-      </c>
-      <c r="C15">
-        <v>3611.0571428571429</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1361,12 +1292,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1375,12 +1306,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>8588.880000000001</v>
@@ -1389,12 +1320,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>2559.101538461538</v>
@@ -1403,12 +1334,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>3954.69</v>
@@ -1417,82 +1348,82 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>4390.615384615385</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C21">
-        <v>4390.6153846153848</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
       <c r="C22">
-        <v>40.770000000000003</v>
+        <v>40.77</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>6251.400000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C23">
-        <v>6251.4000000000005</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24">
+        <v>761.0400000000001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C24">
-        <v>761.04000000000008</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25">
+        <v>250.056</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>63</v>
-      </c>
-      <c r="C25">
-        <v>250.05600000000001</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1507,22 +1438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1534,21 +1459,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>29354</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1559,10 +1484,10 @@
         <v>11039</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1573,10 +1498,10 @@
         <v>15505</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -1587,7 +1512,7 @@
         <v>2810</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
